--- a/biology/Botanique/Centaurea_raphanina/Centaurea_raphanina.xlsx
+++ b/biology/Botanique/Centaurea_raphanina/Centaurea_raphanina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centaurea raphanina est une espèce de plante à fleurs de la famille des Astéracées originaire du sud de la Grèce.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Centaurea carduncella DC.,1838.
 Centaurea pumila d'Urv., 1822.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plante herbacée acaule haute de 5 à 15 cm.
 Fleurs groupées en 2 ou 5 capitules rose-violet de 20 mm de diamètre.</t>
@@ -577,7 +593,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce n'est présente qu'en Crète et dans le sud de la Grèce. Elle pousse dans les rochers jusqu'à une altitude de 2000 m.
 </t>
@@ -608,10 +626,12 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Centaurea raphanina ssp. raphanina est endémique à la Crète et Karpathos[1]
-Centaurea raphanina subsp. mixta, répartie dans le sud de la Grèce centrale, le Péloponnèse et les Cyclades[2].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Centaurea raphanina ssp. raphanina est endémique à la Crète et Karpathos
+Centaurea raphanina subsp. mixta, répartie dans le sud de la Grèce centrale, le Péloponnèse et les Cyclades.</t>
         </is>
       </c>
     </row>
